--- a/Industry/201612-201907/HKD/MN/Analysis_52_9.2.2 -  of other furskins_HKD__MN.xlsx
+++ b/Industry/201612-201907/HKD/MN/Analysis_52_9.2.2 -  of other furskins_HKD__MN.xlsx
@@ -9,25 +9,28 @@
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
     <sheet name="TXbycty" sheetId="2" r:id="rId2"/>
-    <sheet name="TXbyEU" sheetId="3" r:id="rId3"/>
-    <sheet name="TXbyAsean" sheetId="4" r:id="rId4"/>
-    <sheet name="TXbyAsia" sheetId="5" r:id="rId5"/>
-    <sheet name="IMbyctyasOrigin" sheetId="6" r:id="rId6"/>
-    <sheet name="IMbyctyasOrigin_Q" sheetId="7" r:id="rId7"/>
-    <sheet name="IMbyEuropeasOrigin" sheetId="8" r:id="rId8"/>
-    <sheet name="TXbyproduct" sheetId="9" r:id="rId9"/>
-    <sheet name="DXbycty" sheetId="10" r:id="rId10"/>
-    <sheet name="DXbyEU" sheetId="11" r:id="rId11"/>
-    <sheet name="DXbyAsean" sheetId="12" r:id="rId12"/>
-    <sheet name="DXbyAsia" sheetId="13" r:id="rId13"/>
-    <sheet name="DXbyproduct" sheetId="14" r:id="rId14"/>
+    <sheet name="TXbycty_Q" sheetId="3" r:id="rId3"/>
+    <sheet name="TXbyEU" sheetId="4" r:id="rId4"/>
+    <sheet name="TXbyAsean" sheetId="5" r:id="rId5"/>
+    <sheet name="TXbyAsia" sheetId="6" r:id="rId6"/>
+    <sheet name="IMbyctyasOrigin" sheetId="7" r:id="rId7"/>
+    <sheet name="IMbyctyasOrigin_Q" sheetId="8" r:id="rId8"/>
+    <sheet name="IMbyEuropeasOrigin" sheetId="9" r:id="rId9"/>
+    <sheet name="TXbyproduct" sheetId="10" r:id="rId10"/>
+    <sheet name="DXbycty" sheetId="11" r:id="rId11"/>
+    <sheet name="DXbycty_Q" sheetId="12" r:id="rId12"/>
+    <sheet name="DXbyEU" sheetId="13" r:id="rId13"/>
+    <sheet name="DXbyAsean" sheetId="14" r:id="rId14"/>
+    <sheet name="DXbyAsia" sheetId="15" r:id="rId15"/>
+    <sheet name="DXbyproduct" sheetId="16" r:id="rId16"/>
+    <sheet name="RXbycty_Q" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="95">
   <si>
     <t>201612</t>
   </si>
@@ -53,6 +56,9 @@
     <t>201907_% CHG</t>
   </si>
   <si>
+    <t>HKD MN</t>
+  </si>
+  <si>
     <t>Domestic Exports</t>
   </si>
   <si>
@@ -66,6 +72,15 @@
   </si>
   <si>
     <t>Imports</t>
+  </si>
+  <si>
+    <t>Total Exports Quantity</t>
+  </si>
+  <si>
+    <t>Domestic Exports Quantity</t>
+  </si>
+  <si>
+    <t>Re-exports Quantity</t>
   </si>
   <si>
     <t>Imports by Origin Quantity</t>
@@ -87,9 +102,6 @@
   </si>
   <si>
     <t>201907_% Share of overall TX</t>
-  </si>
-  <si>
-    <t>HKD MN</t>
   </si>
   <si>
     <t>All individual countries</t>
@@ -185,6 +197,21 @@
     <t>VIETNAM</t>
   </si>
   <si>
+    <t>201612_% Share of overall TX_Q</t>
+  </si>
+  <si>
+    <t>201712_% Share of overall TX_Q</t>
+  </si>
+  <si>
+    <t>201807_% Share of overall TX_Q</t>
+  </si>
+  <si>
+    <t>201812_% Share of overall TX_Q</t>
+  </si>
+  <si>
+    <t>201907_% Share of overall TX_Q</t>
+  </si>
+  <si>
     <t>EU</t>
   </si>
   <si>
@@ -261,6 +288,33 @@
   </si>
   <si>
     <t>inf</t>
+  </si>
+  <si>
+    <t>201612_% Share of overall DX_Q</t>
+  </si>
+  <si>
+    <t>201712_% Share of overall DX_Q</t>
+  </si>
+  <si>
+    <t>201807_% Share of overall DX_Q</t>
+  </si>
+  <si>
+    <t>201812_% Share of overall DX_Q</t>
+  </si>
+  <si>
+    <t>201612_% Share of overall RX_Q</t>
+  </si>
+  <si>
+    <t>201712_% Share of overall RX_Q</t>
+  </si>
+  <si>
+    <t>201807_% Share of overall RX_Q</t>
+  </si>
+  <si>
+    <t>201812_% Share of overall RX_Q</t>
+  </si>
+  <si>
+    <t>201907_% Share of overall RX_Q</t>
   </si>
 </sst>
 </file>
@@ -618,13 +672,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +709,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0.193</v>
@@ -681,7 +738,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>32.852</v>
@@ -710,7 +767,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>23.979</v>
@@ -739,7 +796,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>33.045</v>
@@ -768,7 +825,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>33.165</v>
@@ -797,30 +854,117 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
+        <v>0.037</v>
+      </c>
+      <c r="C7">
+        <v>0.033</v>
+      </c>
+      <c r="D7">
+        <v>-10.932</v>
+      </c>
+      <c r="E7">
+        <v>0.006</v>
+      </c>
+      <c r="F7">
+        <v>0.024</v>
+      </c>
+      <c r="G7">
+        <v>-28.489</v>
+      </c>
+      <c r="H7">
+        <v>0.01</v>
+      </c>
+      <c r="I7">
+        <v>55.561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>275</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-63.333</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0.037</v>
+      </c>
+      <c r="C9">
+        <v>0.033</v>
+      </c>
+      <c r="D9">
+        <v>-11.055</v>
+      </c>
+      <c r="E9">
+        <v>0.006</v>
+      </c>
+      <c r="F9">
+        <v>0.024</v>
+      </c>
+      <c r="G9">
+        <v>-28.426</v>
+      </c>
+      <c r="H9">
+        <v>0.01</v>
+      </c>
+      <c r="I9">
+        <v>56.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
         <v>0.019</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>0.02</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <v>7.472</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>0.007</v>
       </c>
-      <c r="F7">
+      <c r="F10">
         <v>0.018</v>
       </c>
-      <c r="G7">
+      <c r="G10">
         <v>-8.882999999999999</v>
       </c>
-      <c r="H7">
+      <c r="H10">
         <v>0.007</v>
       </c>
-      <c r="I7">
+      <c r="I10">
         <v>0.756</v>
       </c>
     </row>
@@ -830,6 +974,254 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>33.045</v>
+      </c>
+      <c r="C2">
+        <v>35.869</v>
+      </c>
+      <c r="D2">
+        <v>8.547000000000001</v>
+      </c>
+      <c r="E2">
+        <v>6.192</v>
+      </c>
+      <c r="F2">
+        <v>23.497</v>
+      </c>
+      <c r="G2">
+        <v>-34.493</v>
+      </c>
+      <c r="H2">
+        <v>8.315</v>
+      </c>
+      <c r="I2">
+        <v>34.287</v>
+      </c>
+      <c r="J2">
+        <v>106.917</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3">
+        <v>20.226</v>
+      </c>
+      <c r="C3">
+        <v>20.687</v>
+      </c>
+      <c r="D3">
+        <v>2.279</v>
+      </c>
+      <c r="E3">
+        <v>3.63</v>
+      </c>
+      <c r="F3">
+        <v>14.068</v>
+      </c>
+      <c r="G3">
+        <v>-31.997</v>
+      </c>
+      <c r="H3">
+        <v>7.129</v>
+      </c>
+      <c r="I3">
+        <v>96.377</v>
+      </c>
+      <c r="J3">
+        <v>65.73999999999999</v>
+      </c>
+      <c r="K3">
+        <v>61.208</v>
+      </c>
+      <c r="L3">
+        <v>57.674</v>
+      </c>
+      <c r="M3">
+        <v>58.631</v>
+      </c>
+      <c r="N3">
+        <v>59.871</v>
+      </c>
+      <c r="O3">
+        <v>85.739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4">
+        <v>5.438</v>
+      </c>
+      <c r="C4">
+        <v>4.149</v>
+      </c>
+      <c r="D4">
+        <v>-23.702</v>
+      </c>
+      <c r="E4">
+        <v>1.112</v>
+      </c>
+      <c r="F4">
+        <v>4.447</v>
+      </c>
+      <c r="G4">
+        <v>7.188</v>
+      </c>
+      <c r="H4">
+        <v>0.634</v>
+      </c>
+      <c r="I4">
+        <v>-43.008</v>
+      </c>
+      <c r="J4">
+        <v>15.78</v>
+      </c>
+      <c r="K4">
+        <v>16.457</v>
+      </c>
+      <c r="L4">
+        <v>11.568</v>
+      </c>
+      <c r="M4">
+        <v>17.954</v>
+      </c>
+      <c r="N4">
+        <v>18.928</v>
+      </c>
+      <c r="O4">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5">
+        <v>7.38</v>
+      </c>
+      <c r="C5">
+        <v>11.033</v>
+      </c>
+      <c r="D5">
+        <v>49.487</v>
+      </c>
+      <c r="E5">
+        <v>1.45</v>
+      </c>
+      <c r="F5">
+        <v>4.981</v>
+      </c>
+      <c r="G5">
+        <v>-54.848</v>
+      </c>
+      <c r="H5">
+        <v>0.552</v>
+      </c>
+      <c r="I5">
+        <v>-61.915</v>
+      </c>
+      <c r="J5">
+        <v>25.397</v>
+      </c>
+      <c r="K5">
+        <v>22.335</v>
+      </c>
+      <c r="L5">
+        <v>30.759</v>
+      </c>
+      <c r="M5">
+        <v>23.415</v>
+      </c>
+      <c r="N5">
+        <v>21.201</v>
+      </c>
+      <c r="O5">
+        <v>6.641</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N32"/>
   <sheetViews>
@@ -839,7 +1231,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -866,24 +1258,24 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -918,7 +1310,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -953,7 +1345,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -988,7 +1380,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1023,7 +1415,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1058,7 +1450,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1093,7 +1485,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1102,7 +1494,7 @@
         <v>0.05</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <v>0.04</v>
@@ -1137,7 +1529,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1172,7 +1564,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1207,7 +1599,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1236,7 +1628,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1271,7 +1663,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1294,7 +1686,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>0.167</v>
@@ -1332,7 +1724,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1341,7 +1733,7 @@
         <v>0.031</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1373,7 +1765,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>0.193</v>
@@ -1417,7 +1809,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1437,7 +1829,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1457,7 +1849,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1477,7 +1869,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1491,7 +1883,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1505,7 +1897,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1519,7 +1911,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>0.026</v>
@@ -1539,7 +1931,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1553,7 +1945,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1567,7 +1959,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1581,7 +1973,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1595,7 +1987,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1627,7 +2019,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1659,7 +2051,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1673,7 +2065,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1693,7 +2085,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1710,7 +2102,888 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>57.143</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>-100</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>23.333</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>-100</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>43.75</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>-100</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>76.667</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>275</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>-63.333</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>-100</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -1720,7 +2993,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1744,24 +3017,24 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1796,7 +3069,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1831,7 +3104,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1866,7 +3139,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1895,7 +3168,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1904,7 +3177,7 @@
         <v>0.031</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1936,7 +3209,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1945,7 +3218,7 @@
         <v>0.031</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1977,7 +3250,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1997,7 +3270,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2017,7 +3290,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2031,7 +3304,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2045,7 +3318,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2059,7 +3332,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2076,7 +3349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -2086,7 +3359,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2104,24 +3377,24 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2144,7 +3417,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2179,7 +3452,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2193,7 +3466,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2225,7 +3498,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2242,7 +3515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
@@ -2252,7 +3525,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2279,24 +3552,24 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2331,7 +3604,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2340,7 +3613,7 @@
         <v>0.05</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>0.04</v>
@@ -2375,7 +3648,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2410,7 +3683,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2445,7 +3718,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2480,7 +3753,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2503,7 +3776,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2512,7 +3785,7 @@
         <v>0.05</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <v>0.04</v>
@@ -2547,7 +3820,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2561,7 +3834,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2593,7 +3866,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2610,7 +3883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N5"/>
   <sheetViews>
@@ -2620,7 +3893,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2647,24 +3920,24 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2699,7 +3972,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2708,7 +3981,7 @@
         <v>0.031</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2740,7 +4013,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>0.193</v>
@@ -2784,7 +4057,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0.193</v>
@@ -2824,6 +4097,1112 @@
       </c>
       <c r="N5">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>0.037</v>
+      </c>
+      <c r="C2">
+        <v>0.033</v>
+      </c>
+      <c r="D2">
+        <v>-11.055</v>
+      </c>
+      <c r="E2">
+        <v>0.006</v>
+      </c>
+      <c r="F2">
+        <v>0.024</v>
+      </c>
+      <c r="G2">
+        <v>-28.426</v>
+      </c>
+      <c r="H2">
+        <v>0.01</v>
+      </c>
+      <c r="I2">
+        <v>56.11</v>
+      </c>
+      <c r="J2">
+        <v>0.11</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0.018</v>
+      </c>
+      <c r="C3">
+        <v>0.018</v>
+      </c>
+      <c r="D3">
+        <v>0.634</v>
+      </c>
+      <c r="E3">
+        <v>0.003</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3">
+        <v>-46.279</v>
+      </c>
+      <c r="H3">
+        <v>0.008</v>
+      </c>
+      <c r="I3">
+        <v>215.546</v>
+      </c>
+      <c r="J3">
+        <v>0.057</v>
+      </c>
+      <c r="K3">
+        <v>48.844</v>
+      </c>
+      <c r="L3">
+        <v>55.263</v>
+      </c>
+      <c r="M3">
+        <v>41.26</v>
+      </c>
+      <c r="N3">
+        <v>41.478</v>
+      </c>
+      <c r="O3">
+        <v>83.40000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>0.01</v>
+      </c>
+      <c r="C4">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="D4">
+        <v>-14.567</v>
+      </c>
+      <c r="E4">
+        <v>0.003</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
+        <v>15.665</v>
+      </c>
+      <c r="H4">
+        <v>0.001</v>
+      </c>
+      <c r="I4">
+        <v>-64.69799999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.033</v>
+      </c>
+      <c r="K4">
+        <v>27.735</v>
+      </c>
+      <c r="L4">
+        <v>26.64</v>
+      </c>
+      <c r="M4">
+        <v>45.061</v>
+      </c>
+      <c r="N4">
+        <v>43.051</v>
+      </c>
+      <c r="O4">
+        <v>10.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>0.002</v>
+      </c>
+      <c r="C5">
+        <v>0.001</v>
+      </c>
+      <c r="D5">
+        <v>-35.741</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.001</v>
+      </c>
+      <c r="G5">
+        <v>-49.709</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-56.509</v>
+      </c>
+      <c r="J5">
+        <v>0.004</v>
+      </c>
+      <c r="K5">
+        <v>5.031</v>
+      </c>
+      <c r="L5">
+        <v>3.635</v>
+      </c>
+      <c r="M5">
+        <v>5.42</v>
+      </c>
+      <c r="N5">
+        <v>2.554</v>
+      </c>
+      <c r="O5">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>0.001</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-49.285</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.001</v>
+      </c>
+      <c r="G6">
+        <v>68.02500000000001</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-31.915</v>
+      </c>
+      <c r="J6">
+        <v>0.002</v>
+      </c>
+      <c r="K6">
+        <v>1.693</v>
+      </c>
+      <c r="L6">
+        <v>0.965</v>
+      </c>
+      <c r="M6">
+        <v>3.015</v>
+      </c>
+      <c r="N6">
+        <v>2.266</v>
+      </c>
+      <c r="O6">
+        <v>1.315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.001</v>
+      </c>
+      <c r="D7">
+        <v>61.421</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>-74.057</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>12.658</v>
+      </c>
+      <c r="J7">
+        <v>0.001</v>
+      </c>
+      <c r="K7">
+        <v>1.061</v>
+      </c>
+      <c r="L7">
+        <v>1.925</v>
+      </c>
+      <c r="M7">
+        <v>1.267</v>
+      </c>
+      <c r="N7">
+        <v>0.698</v>
+      </c>
+      <c r="O7">
+        <v>0.914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>345.833</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-48.598</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>65.95699999999999</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.065</v>
+      </c>
+      <c r="L8">
+        <v>0.324</v>
+      </c>
+      <c r="M8">
+        <v>0.754</v>
+      </c>
+      <c r="N8">
+        <v>0.233</v>
+      </c>
+      <c r="O8">
+        <v>0.801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>0.001</v>
+      </c>
+      <c r="C9">
+        <v>0.001</v>
+      </c>
+      <c r="D9">
+        <v>-7.013</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-52.796</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>132.143</v>
+      </c>
+      <c r="J9">
+        <v>0.002</v>
+      </c>
+      <c r="K9">
+        <v>2.226</v>
+      </c>
+      <c r="L9">
+        <v>2.327</v>
+      </c>
+      <c r="M9">
+        <v>0.449</v>
+      </c>
+      <c r="N9">
+        <v>1.535</v>
+      </c>
+      <c r="O9">
+        <v>0.668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-56.757</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>900</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.498</v>
+      </c>
+      <c r="L10">
+        <v>0.242</v>
+      </c>
+      <c r="M10">
+        <v>0.064</v>
+      </c>
+      <c r="N10">
+        <v>0.372</v>
+      </c>
+      <c r="O10">
+        <v>0.411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.001</v>
+      </c>
+      <c r="G11">
+        <v>474.449</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1300</v>
+      </c>
+      <c r="J11">
+        <v>0.002</v>
+      </c>
+      <c r="L11">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.032</v>
+      </c>
+      <c r="N11">
+        <v>5.514</v>
+      </c>
+      <c r="O11">
+        <v>0.288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>0.002</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-81.556</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>-95.238</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>58.333</v>
+      </c>
+      <c r="J12">
+        <v>0.002</v>
+      </c>
+      <c r="K12">
+        <v>4.291</v>
+      </c>
+      <c r="L12">
+        <v>0.89</v>
+      </c>
+      <c r="M12">
+        <v>0.192</v>
+      </c>
+      <c r="N12">
+        <v>0.059</v>
+      </c>
+      <c r="O12">
+        <v>0.195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-47.619</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>-54.545</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>-7.692</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.17</v>
+      </c>
+      <c r="L13">
+        <v>0.1</v>
+      </c>
+      <c r="M13">
+        <v>0.208</v>
+      </c>
+      <c r="N13">
+        <v>0.063</v>
+      </c>
+      <c r="O13">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>172.84</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>61.538</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>-77.551</v>
+      </c>
+      <c r="J14">
+        <v>0.001</v>
+      </c>
+      <c r="K14">
+        <v>0.218</v>
+      </c>
+      <c r="L14">
+        <v>0.669</v>
+      </c>
+      <c r="M14">
+        <v>0.786</v>
+      </c>
+      <c r="N14">
+        <v>1.509</v>
+      </c>
+      <c r="O14">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>0.001</v>
+      </c>
+      <c r="C15">
+        <v>0.001</v>
+      </c>
+      <c r="D15">
+        <v>9.345000000000001</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.002</v>
+      </c>
+      <c r="K15">
+        <v>3.082</v>
+      </c>
+      <c r="L15">
+        <v>3.789</v>
+      </c>
+      <c r="O15">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>0.001</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>-86.54600000000001</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>-43.293</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>-96.386</v>
+      </c>
+      <c r="J16">
+        <v>0.002</v>
+      </c>
+      <c r="K16">
+        <v>3.281</v>
+      </c>
+      <c r="L16">
+        <v>0.496</v>
+      </c>
+      <c r="M16">
+        <v>1.331</v>
+      </c>
+      <c r="N16">
+        <v>0.393</v>
+      </c>
+      <c r="O16">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>-9.615</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.14</v>
+      </c>
+      <c r="N17">
+        <v>0.199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>-56.18</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.24</v>
+      </c>
+      <c r="L18">
+        <v>0.118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>10.278</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.001</v>
+      </c>
+      <c r="K19">
+        <v>0.969</v>
+      </c>
+      <c r="L19">
+        <v>1.201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0.139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>12.5</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>-66.667</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0.065</v>
+      </c>
+      <c r="L28">
+        <v>0.082</v>
+      </c>
+      <c r="M28">
+        <v>0.128</v>
+      </c>
+      <c r="N28">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>350</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>-66.667</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0.005</v>
+      </c>
+      <c r="L29">
+        <v>0.027</v>
+      </c>
+      <c r="M29">
+        <v>0.032</v>
+      </c>
+      <c r="N29">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>132.143</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.075</v>
+      </c>
+      <c r="L31">
+        <v>0.197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0.025</v>
       </c>
     </row>
   </sheetData>
@@ -2841,7 +5220,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2868,27 +5247,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>33.045</v>
@@ -2935,7 +5314,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>11.558</v>
@@ -2982,7 +5361,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>8.096</v>
@@ -3029,7 +5408,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>2.22</v>
@@ -3076,7 +5455,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>2.116</v>
@@ -3123,7 +5502,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>2.51</v>
@@ -3170,7 +5549,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>0.349</v>
@@ -3208,7 +5587,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>1.337</v>
@@ -3255,7 +5634,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0.96</v>
@@ -3302,7 +5681,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>1.775</v>
@@ -3349,7 +5728,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>0.122</v>
@@ -3396,7 +5775,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>0.13</v>
@@ -3443,7 +5822,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>0.205</v>
@@ -3490,7 +5869,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>1.017</v>
@@ -3537,7 +5916,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>0.259</v>
@@ -3569,7 +5948,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>0.039</v>
@@ -3595,7 +5974,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>0.095</v>
@@ -3621,7 +6000,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>0.116</v>
@@ -3647,7 +6026,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>0.07099999999999999</v>
@@ -3667,7 +6046,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>0.022</v>
@@ -3687,7 +6066,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>0.007</v>
@@ -3707,7 +6086,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>0.026</v>
@@ -3727,7 +6106,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>0.01</v>
@@ -3744,7 +6123,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>0.004</v>
@@ -3761,7 +6140,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>0.008999999999999999</v>
@@ -3781,7 +6160,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>0.019</v>
@@ -3801,7 +6180,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>0.187</v>
@@ -3842,7 +6221,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>0.08</v>
@@ -3883,7 +6262,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C30">
         <v>0.049</v>
@@ -3900,7 +6279,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>0.07000000000000001</v>
@@ -3926,7 +6305,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F32">
         <v>0.124</v>
@@ -3944,6 +6323,1118 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>0.037</v>
+      </c>
+      <c r="C2">
+        <v>0.033</v>
+      </c>
+      <c r="D2">
+        <v>-10.932</v>
+      </c>
+      <c r="E2">
+        <v>0.006</v>
+      </c>
+      <c r="F2">
+        <v>0.024</v>
+      </c>
+      <c r="G2">
+        <v>-28.489</v>
+      </c>
+      <c r="H2">
+        <v>0.01</v>
+      </c>
+      <c r="I2">
+        <v>55.561</v>
+      </c>
+      <c r="J2">
+        <v>0.11</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0.018</v>
+      </c>
+      <c r="C3">
+        <v>0.018</v>
+      </c>
+      <c r="D3">
+        <v>0.711</v>
+      </c>
+      <c r="E3">
+        <v>0.003</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3">
+        <v>-46.2</v>
+      </c>
+      <c r="H3">
+        <v>0.008</v>
+      </c>
+      <c r="I3">
+        <v>212.871</v>
+      </c>
+      <c r="J3">
+        <v>0.057</v>
+      </c>
+      <c r="K3">
+        <v>48.823</v>
+      </c>
+      <c r="L3">
+        <v>55.205</v>
+      </c>
+      <c r="M3">
+        <v>41.467</v>
+      </c>
+      <c r="N3">
+        <v>41.533</v>
+      </c>
+      <c r="O3">
+        <v>83.40000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>0.01</v>
+      </c>
+      <c r="C4">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="D4">
+        <v>-14.625</v>
+      </c>
+      <c r="E4">
+        <v>0.003</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
+        <v>15.665</v>
+      </c>
+      <c r="H4">
+        <v>0.001</v>
+      </c>
+      <c r="I4">
+        <v>-64.69799999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.033</v>
+      </c>
+      <c r="K4">
+        <v>27.742</v>
+      </c>
+      <c r="L4">
+        <v>26.592</v>
+      </c>
+      <c r="M4">
+        <v>44.903</v>
+      </c>
+      <c r="N4">
+        <v>43.011</v>
+      </c>
+      <c r="O4">
+        <v>10.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>0.002</v>
+      </c>
+      <c r="C5">
+        <v>0.001</v>
+      </c>
+      <c r="D5">
+        <v>-35.741</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.001</v>
+      </c>
+      <c r="G5">
+        <v>-49.709</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-56.509</v>
+      </c>
+      <c r="J5">
+        <v>0.004</v>
+      </c>
+      <c r="K5">
+        <v>5.029</v>
+      </c>
+      <c r="L5">
+        <v>3.628</v>
+      </c>
+      <c r="M5">
+        <v>5.401</v>
+      </c>
+      <c r="N5">
+        <v>2.551</v>
+      </c>
+      <c r="O5">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>0.001</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-49.285</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.001</v>
+      </c>
+      <c r="G6">
+        <v>68.02500000000001</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-31.915</v>
+      </c>
+      <c r="J6">
+        <v>0.002</v>
+      </c>
+      <c r="K6">
+        <v>1.692</v>
+      </c>
+      <c r="L6">
+        <v>0.964</v>
+      </c>
+      <c r="M6">
+        <v>3.004</v>
+      </c>
+      <c r="N6">
+        <v>2.264</v>
+      </c>
+      <c r="O6">
+        <v>1.315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.001</v>
+      </c>
+      <c r="D7">
+        <v>61.421</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>-74.057</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>12.658</v>
+      </c>
+      <c r="J7">
+        <v>0.001</v>
+      </c>
+      <c r="K7">
+        <v>1.06</v>
+      </c>
+      <c r="L7">
+        <v>1.921</v>
+      </c>
+      <c r="M7">
+        <v>1.262</v>
+      </c>
+      <c r="N7">
+        <v>0.697</v>
+      </c>
+      <c r="O7">
+        <v>0.914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>345.833</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-48.598</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>65.95699999999999</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.065</v>
+      </c>
+      <c r="L8">
+        <v>0.323</v>
+      </c>
+      <c r="M8">
+        <v>0.751</v>
+      </c>
+      <c r="N8">
+        <v>0.232</v>
+      </c>
+      <c r="O8">
+        <v>0.801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>0.001</v>
+      </c>
+      <c r="C9">
+        <v>0.001</v>
+      </c>
+      <c r="D9">
+        <v>-7.013</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-52.796</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>132.143</v>
+      </c>
+      <c r="J9">
+        <v>0.002</v>
+      </c>
+      <c r="K9">
+        <v>2.225</v>
+      </c>
+      <c r="L9">
+        <v>2.323</v>
+      </c>
+      <c r="M9">
+        <v>0.447</v>
+      </c>
+      <c r="N9">
+        <v>1.533</v>
+      </c>
+      <c r="O9">
+        <v>0.668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-56.757</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>900</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.498</v>
+      </c>
+      <c r="L10">
+        <v>0.242</v>
+      </c>
+      <c r="M10">
+        <v>0.064</v>
+      </c>
+      <c r="N10">
+        <v>0.372</v>
+      </c>
+      <c r="O10">
+        <v>0.411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.001</v>
+      </c>
+      <c r="G11">
+        <v>474.449</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1300</v>
+      </c>
+      <c r="J11">
+        <v>0.002</v>
+      </c>
+      <c r="L11">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.032</v>
+      </c>
+      <c r="N11">
+        <v>5.508</v>
+      </c>
+      <c r="O11">
+        <v>0.288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>0.002</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-81.556</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>-95.238</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>58.333</v>
+      </c>
+      <c r="J12">
+        <v>0.002</v>
+      </c>
+      <c r="K12">
+        <v>4.289</v>
+      </c>
+      <c r="L12">
+        <v>0.888</v>
+      </c>
+      <c r="M12">
+        <v>0.192</v>
+      </c>
+      <c r="N12">
+        <v>0.059</v>
+      </c>
+      <c r="O12">
+        <v>0.195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-47.619</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>-54.545</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>-7.692</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.17</v>
+      </c>
+      <c r="L13">
+        <v>0.1</v>
+      </c>
+      <c r="M13">
+        <v>0.208</v>
+      </c>
+      <c r="N13">
+        <v>0.063</v>
+      </c>
+      <c r="O13">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>172.84</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>61.538</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>-77.551</v>
+      </c>
+      <c r="J14">
+        <v>0.001</v>
+      </c>
+      <c r="K14">
+        <v>0.218</v>
+      </c>
+      <c r="L14">
+        <v>0.668</v>
+      </c>
+      <c r="M14">
+        <v>0.783</v>
+      </c>
+      <c r="N14">
+        <v>1.508</v>
+      </c>
+      <c r="O14">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>0.001</v>
+      </c>
+      <c r="C15">
+        <v>0.001</v>
+      </c>
+      <c r="D15">
+        <v>9.345000000000001</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.002</v>
+      </c>
+      <c r="K15">
+        <v>3.081</v>
+      </c>
+      <c r="L15">
+        <v>3.782</v>
+      </c>
+      <c r="O15">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>0.001</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>-82.773</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>-55.714</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>-96.386</v>
+      </c>
+      <c r="J16">
+        <v>0.002</v>
+      </c>
+      <c r="K16">
+        <v>3.28</v>
+      </c>
+      <c r="L16">
+        <v>0.634</v>
+      </c>
+      <c r="M16">
+        <v>1.326</v>
+      </c>
+      <c r="N16">
+        <v>0.393</v>
+      </c>
+      <c r="O16">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>-9.615</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.14</v>
+      </c>
+      <c r="N17">
+        <v>0.199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>-56.18</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.239</v>
+      </c>
+      <c r="L18">
+        <v>0.118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>10.278</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.001</v>
+      </c>
+      <c r="K19">
+        <v>0.969</v>
+      </c>
+      <c r="L19">
+        <v>1.199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0.274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0.139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>12.5</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>-66.667</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0.065</v>
+      </c>
+      <c r="L28">
+        <v>0.082</v>
+      </c>
+      <c r="M28">
+        <v>0.128</v>
+      </c>
+      <c r="N28">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>350</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>-66.667</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0.005</v>
+      </c>
+      <c r="L29">
+        <v>0.027</v>
+      </c>
+      <c r="M29">
+        <v>0.032</v>
+      </c>
+      <c r="N29">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>132.143</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.075</v>
+      </c>
+      <c r="L31">
+        <v>0.196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0.025</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O13"/>
   <sheetViews>
@@ -3953,7 +7444,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3980,27 +7471,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>3.893</v>
@@ -4047,7 +7538,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>2.22</v>
@@ -4094,7 +7585,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>0.349</v>
@@ -4132,7 +7623,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>0.122</v>
@@ -4179,7 +7670,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0.205</v>
@@ -4226,7 +7717,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>1.017</v>
@@ -4273,7 +7764,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>0.095</v>
@@ -4299,7 +7790,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>0.116</v>
@@ -4325,7 +7816,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>0.07099999999999999</v>
@@ -4345,7 +7836,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0.022</v>
@@ -4365,7 +7856,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>0.007</v>
@@ -4385,7 +7876,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>0.019</v>
@@ -4408,7 +7899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O6"/>
   <sheetViews>
@@ -4418,7 +7909,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4445,27 +7936,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.259</v>
@@ -4497,7 +7988,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>0.445</v>
@@ -4544,7 +8035,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>0.004</v>
@@ -4561,7 +8052,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>0.187</v>
@@ -4602,7 +8093,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>0.124</v>
@@ -4619,7 +8110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O11"/>
   <sheetViews>
@@ -4629,7 +8120,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4656,27 +8147,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>18.925</v>
@@ -4723,7 +8214,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>11.558</v>
@@ -4770,7 +8261,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>2.116</v>
@@ -4817,7 +8308,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>2.51</v>
@@ -4864,7 +8355,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>1.337</v>
@@ -4911,7 +8402,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>0.96</v>
@@ -4958,7 +8449,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>0.259</v>
@@ -4990,7 +8481,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>0.004</v>
@@ -5007,7 +8498,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>0.187</v>
@@ -5048,7 +8539,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>0.124</v>
@@ -5058,635 +8549,6 @@
       </c>
       <c r="N11">
         <v>0.529</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>33.165</v>
-      </c>
-      <c r="C2">
-        <v>24.775</v>
-      </c>
-      <c r="D2">
-        <v>-25.297</v>
-      </c>
-      <c r="E2">
-        <v>8.856999999999999</v>
-      </c>
-      <c r="F2">
-        <v>16.785</v>
-      </c>
-      <c r="G2">
-        <v>-32.252</v>
-      </c>
-      <c r="H2">
-        <v>3.052</v>
-      </c>
-      <c r="I2">
-        <v>-65.547</v>
-      </c>
-      <c r="J2">
-        <v>86.634</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>22.53</v>
-      </c>
-      <c r="C3">
-        <v>15.575</v>
-      </c>
-      <c r="D3">
-        <v>-30.87</v>
-      </c>
-      <c r="E3">
-        <v>6.12</v>
-      </c>
-      <c r="F3">
-        <v>10.12</v>
-      </c>
-      <c r="G3">
-        <v>-35.021</v>
-      </c>
-      <c r="H3">
-        <v>1.937</v>
-      </c>
-      <c r="I3">
-        <v>-68.349</v>
-      </c>
-      <c r="J3">
-        <v>56.282</v>
-      </c>
-      <c r="K3">
-        <v>67.932</v>
-      </c>
-      <c r="L3">
-        <v>62.864</v>
-      </c>
-      <c r="M3">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="N3">
-        <v>60.294</v>
-      </c>
-      <c r="O3">
-        <v>63.48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>8.561</v>
-      </c>
-      <c r="C4">
-        <v>8.102</v>
-      </c>
-      <c r="D4">
-        <v>-5.364</v>
-      </c>
-      <c r="E4">
-        <v>1.862</v>
-      </c>
-      <c r="F4">
-        <v>5.595</v>
-      </c>
-      <c r="G4">
-        <v>-30.948</v>
-      </c>
-      <c r="H4">
-        <v>0.97</v>
-      </c>
-      <c r="I4">
-        <v>-47.911</v>
-      </c>
-      <c r="J4">
-        <v>25.09</v>
-      </c>
-      <c r="K4">
-        <v>25.814</v>
-      </c>
-      <c r="L4">
-        <v>32.703</v>
-      </c>
-      <c r="M4">
-        <v>21.021</v>
-      </c>
-      <c r="N4">
-        <v>33.332</v>
-      </c>
-      <c r="O4">
-        <v>31.781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5">
-        <v>0.98</v>
-      </c>
-      <c r="C5">
-        <v>0.76</v>
-      </c>
-      <c r="D5">
-        <v>-22.395</v>
-      </c>
-      <c r="E5">
-        <v>0.437</v>
-      </c>
-      <c r="F5">
-        <v>0.575</v>
-      </c>
-      <c r="G5">
-        <v>-24.423</v>
-      </c>
-      <c r="H5">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="I5">
-        <v>-80.60299999999999</v>
-      </c>
-      <c r="J5">
-        <v>2.837</v>
-      </c>
-      <c r="K5">
-        <v>2.955</v>
-      </c>
-      <c r="L5">
-        <v>3.069</v>
-      </c>
-      <c r="M5">
-        <v>4.933</v>
-      </c>
-      <c r="N5">
-        <v>3.424</v>
-      </c>
-      <c r="O5">
-        <v>2.777</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6">
-        <v>0.054</v>
-      </c>
-      <c r="C6">
-        <v>0.17</v>
-      </c>
-      <c r="D6">
-        <v>216.333</v>
-      </c>
-      <c r="E6">
-        <v>0.015</v>
-      </c>
-      <c r="F6">
-        <v>0.035</v>
-      </c>
-      <c r="G6">
-        <v>-79.60299999999999</v>
-      </c>
-      <c r="H6">
-        <v>0.033</v>
-      </c>
-      <c r="I6">
-        <v>117.253</v>
-      </c>
-      <c r="J6">
-        <v>0.306</v>
-      </c>
-      <c r="K6">
-        <v>0.162</v>
-      </c>
-      <c r="L6">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="M6">
-        <v>0.169</v>
-      </c>
-      <c r="N6">
-        <v>0.207</v>
-      </c>
-      <c r="O6">
-        <v>1.068</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7">
-        <v>0.026</v>
-      </c>
-      <c r="J7">
-        <v>0.026</v>
-      </c>
-      <c r="O7">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8">
-        <v>0.022</v>
-      </c>
-      <c r="C8">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="D8">
-        <v>281.492</v>
-      </c>
-      <c r="F8">
-        <v>0.015</v>
-      </c>
-      <c r="G8">
-        <v>-82.004</v>
-      </c>
-      <c r="H8">
-        <v>0.002</v>
-      </c>
-      <c r="J8">
-        <v>0.123</v>
-      </c>
-      <c r="K8">
-        <v>0.067</v>
-      </c>
-      <c r="L8">
-        <v>0.341</v>
-      </c>
-      <c r="N8">
-        <v>0.091</v>
-      </c>
-      <c r="O8">
-        <v>0.054</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>0.097</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.097</v>
-      </c>
-      <c r="K9">
-        <v>0.291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>0.059</v>
-      </c>
-      <c r="F10">
-        <v>0.059</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0.119</v>
-      </c>
-      <c r="M10">
-        <v>0.669</v>
-      </c>
-      <c r="N10">
-        <v>0.353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11">
-        <v>0.166</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0.166</v>
-      </c>
-      <c r="K11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12">
-        <v>0.191</v>
-      </c>
-      <c r="C12">
-        <v>0.047</v>
-      </c>
-      <c r="D12">
-        <v>-75.259</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0.239</v>
-      </c>
-      <c r="K12">
-        <v>0.577</v>
-      </c>
-      <c r="L12">
-        <v>0.191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13">
-        <v>0.011</v>
-      </c>
-      <c r="F13">
-        <v>0.011</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0.023</v>
-      </c>
-      <c r="M13">
-        <v>0.127</v>
-      </c>
-      <c r="N13">
-        <v>0.067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>0.183</v>
-      </c>
-      <c r="C14">
-        <v>0.022</v>
-      </c>
-      <c r="D14">
-        <v>-87.938</v>
-      </c>
-      <c r="F14">
-        <v>0.004</v>
-      </c>
-      <c r="G14">
-        <v>-82.163</v>
-      </c>
-      <c r="J14">
-        <v>0.209</v>
-      </c>
-      <c r="K14">
-        <v>0.552</v>
-      </c>
-      <c r="L14">
-        <v>0.089</v>
-      </c>
-      <c r="N14">
-        <v>0.023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15">
-        <v>0.018</v>
-      </c>
-      <c r="J15">
-        <v>0.018</v>
-      </c>
-      <c r="N15">
-        <v>0.109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
-        <v>0.002</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0.002</v>
-      </c>
-      <c r="L16">
-        <v>0.008999999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17">
-        <v>0.04</v>
-      </c>
-      <c r="C17">
-        <v>0.011</v>
-      </c>
-      <c r="D17">
-        <v>-72.825</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0.05</v>
-      </c>
-      <c r="K17">
-        <v>0.119</v>
-      </c>
-      <c r="L17">
-        <v>0.043</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>0.278</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0.278</v>
-      </c>
-      <c r="K18">
-        <v>0.839</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19">
-        <v>0.012</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0.012</v>
-      </c>
-      <c r="K19">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>0.052</v>
-      </c>
-      <c r="C20">
-        <v>0.001</v>
-      </c>
-      <c r="D20">
-        <v>-98.40600000000001</v>
-      </c>
-      <c r="E20">
-        <v>0.352</v>
-      </c>
-      <c r="F20">
-        <v>0.352</v>
-      </c>
-      <c r="G20">
-        <v>42626.667</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0.758</v>
-      </c>
-      <c r="K20">
-        <v>0.156</v>
-      </c>
-      <c r="L20">
-        <v>0.003</v>
-      </c>
-      <c r="M20">
-        <v>3.98</v>
-      </c>
-      <c r="N20">
-        <v>2.1</v>
       </c>
     </row>
   </sheetData>
@@ -5704,7 +8566,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5731,7 +8593,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>63</v>
@@ -5751,34 +8613,34 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>0.019</v>
+        <v>33.165</v>
       </c>
       <c r="C2">
-        <v>0.02</v>
+        <v>24.775</v>
       </c>
       <c r="D2">
-        <v>7.472</v>
+        <v>-25.297</v>
       </c>
       <c r="E2">
-        <v>0.007</v>
+        <v>8.856999999999999</v>
       </c>
       <c r="F2">
-        <v>0.018</v>
+        <v>16.785</v>
       </c>
       <c r="G2">
-        <v>-8.882999999999999</v>
+        <v>-32.252</v>
       </c>
       <c r="H2">
-        <v>0.007</v>
+        <v>3.052</v>
       </c>
       <c r="I2">
-        <v>0.756</v>
+        <v>-65.547</v>
       </c>
       <c r="J2">
-        <v>0.07000000000000001</v>
+        <v>86.634</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -5798,250 +8660,250 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>0.014</v>
+        <v>22.53</v>
       </c>
       <c r="C3">
-        <v>0.017</v>
+        <v>15.575</v>
       </c>
       <c r="D3">
-        <v>20.71</v>
+        <v>-30.87</v>
       </c>
       <c r="E3">
-        <v>0.006</v>
+        <v>6.12</v>
       </c>
       <c r="F3">
-        <v>0.017</v>
+        <v>10.12</v>
       </c>
       <c r="G3">
-        <v>-4.432</v>
+        <v>-35.021</v>
       </c>
       <c r="H3">
-        <v>0.006</v>
+        <v>1.937</v>
       </c>
       <c r="I3">
-        <v>9.779999999999999</v>
+        <v>-68.349</v>
       </c>
       <c r="J3">
-        <v>0.061</v>
+        <v>56.282</v>
       </c>
       <c r="K3">
-        <v>78.092</v>
+        <v>67.932</v>
       </c>
       <c r="L3">
-        <v>87.711</v>
+        <v>62.864</v>
       </c>
       <c r="M3">
-        <v>86.94799999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="N3">
-        <v>91.996</v>
+        <v>60.294</v>
       </c>
       <c r="O3">
-        <v>94.736</v>
+        <v>63.48</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>0.003</v>
+        <v>8.561</v>
       </c>
       <c r="C4">
-        <v>0.002</v>
+        <v>8.102</v>
       </c>
       <c r="D4">
-        <v>-35.919</v>
+        <v>-5.364</v>
       </c>
       <c r="E4">
-        <v>0.001</v>
+        <v>1.862</v>
       </c>
       <c r="F4">
-        <v>0.001</v>
+        <v>5.595</v>
       </c>
       <c r="G4">
-        <v>-44.261</v>
+        <v>-30.948</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="I4">
-        <v>-56.716</v>
+        <v>-47.911</v>
       </c>
       <c r="J4">
-        <v>0.008</v>
+        <v>25.09</v>
       </c>
       <c r="K4">
-        <v>18.836</v>
+        <v>25.814</v>
       </c>
       <c r="L4">
-        <v>11.231</v>
+        <v>32.703</v>
       </c>
       <c r="M4">
-        <v>10.919</v>
+        <v>21.021</v>
       </c>
       <c r="N4">
-        <v>6.87</v>
+        <v>33.332</v>
       </c>
       <c r="O4">
-        <v>4.69</v>
+        <v>31.781</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="D5">
-        <v>2225</v>
+        <v>-22.395</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.437</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.575</v>
       </c>
       <c r="G5">
-        <v>-62.366</v>
+        <v>-24.423</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="I5">
-        <v>57.143</v>
+        <v>-80.60299999999999</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.837</v>
       </c>
       <c r="K5">
-        <v>0.022</v>
+        <v>2.955</v>
       </c>
       <c r="L5">
-        <v>0.466</v>
+        <v>3.069</v>
       </c>
       <c r="M5">
-        <v>0.207</v>
+        <v>4.933</v>
       </c>
       <c r="N5">
-        <v>0.193</v>
+        <v>3.424</v>
       </c>
       <c r="O5">
-        <v>0.323</v>
+        <v>2.777</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.054</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D6">
-        <v>-77.77800000000001</v>
+        <v>216.333</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>-79.60299999999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="I6">
-        <v>-78.125</v>
+        <v>117.253</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.306</v>
       </c>
       <c r="K6">
-        <v>1.213</v>
+        <v>0.162</v>
       </c>
       <c r="L6">
-        <v>0.251</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="M6">
-        <v>0.948</v>
+        <v>0.169</v>
       </c>
       <c r="N6">
-        <v>0.413</v>
+        <v>0.207</v>
       </c>
       <c r="O6">
-        <v>0.206</v>
+        <v>1.068</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>43.75</v>
+        <v>34</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="L7">
-        <v>0.08</v>
-      </c>
-      <c r="N7">
-        <v>0.127</v>
+        <v>0.026</v>
       </c>
       <c r="O7">
-        <v>0.029</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>0.022</v>
+      </c>
+      <c r="C8">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="D8">
+        <v>281.492</v>
+      </c>
+      <c r="F8">
+        <v>0.015</v>
+      </c>
+      <c r="G8">
+        <v>-82.004</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.123</v>
+      </c>
+      <c r="K8">
+        <v>0.067</v>
+      </c>
+      <c r="L8">
+        <v>0.341</v>
+      </c>
+      <c r="N8">
+        <v>0.091</v>
       </c>
       <c r="O8">
-        <v>0.015</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.097</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -6050,41 +8912,41 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.097</v>
       </c>
       <c r="K9">
-        <v>0.092</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.119</v>
       </c>
       <c r="M10">
-        <v>0.044</v>
+        <v>0.669</v>
       </c>
       <c r="N10">
-        <v>0.017</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.166</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -6093,156 +8955,156 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.166</v>
       </c>
       <c r="K11">
-        <v>0.124</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.191</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="D12">
-        <v>-51.429</v>
+        <v>-75.259</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.239</v>
       </c>
       <c r="K12">
-        <v>0.189</v>
+        <v>0.577</v>
       </c>
       <c r="L12">
-        <v>0.08500000000000001</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="M13">
-        <v>0.03</v>
+        <v>0.127</v>
       </c>
       <c r="N13">
-        <v>0.011</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.183</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="D14">
-        <v>-85.38800000000001</v>
+        <v>-87.938</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="G14">
-        <v>-81.25</v>
+        <v>-82.163</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.209</v>
       </c>
       <c r="K14">
-        <v>1.181</v>
+        <v>0.552</v>
       </c>
       <c r="L14">
-        <v>0.161</v>
+        <v>0.089</v>
       </c>
       <c r="N14">
-        <v>0.033</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="N15">
-        <v>0.006</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L16">
-        <v>0.005</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="D17">
-        <v>-75</v>
+        <v>-72.825</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K17">
-        <v>0.022</v>
+        <v>0.119</v>
       </c>
       <c r="L17">
-        <v>0.005</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.278</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -6251,18 +9113,18 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.278</v>
       </c>
       <c r="K18">
-        <v>0.027</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -6271,51 +9133,51 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="K19">
-        <v>0.081</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D20">
-        <v>-85.714</v>
+        <v>-98.40600000000001</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.352</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.352</v>
       </c>
       <c r="G20">
-        <v>6000</v>
+        <v>42626.667</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.758</v>
       </c>
       <c r="K20">
-        <v>0.038</v>
+        <v>0.156</v>
       </c>
       <c r="L20">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="M20">
-        <v>0.904</v>
+        <v>3.98</v>
       </c>
       <c r="N20">
-        <v>0.336</v>
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
@@ -6324,6 +9186,635 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>0.019</v>
+      </c>
+      <c r="C2">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>7.472</v>
+      </c>
+      <c r="E2">
+        <v>0.007</v>
+      </c>
+      <c r="F2">
+        <v>0.018</v>
+      </c>
+      <c r="G2">
+        <v>-8.882999999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.007</v>
+      </c>
+      <c r="I2">
+        <v>0.756</v>
+      </c>
+      <c r="J2">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>0.014</v>
+      </c>
+      <c r="C3">
+        <v>0.017</v>
+      </c>
+      <c r="D3">
+        <v>20.71</v>
+      </c>
+      <c r="E3">
+        <v>0.006</v>
+      </c>
+      <c r="F3">
+        <v>0.017</v>
+      </c>
+      <c r="G3">
+        <v>-4.432</v>
+      </c>
+      <c r="H3">
+        <v>0.006</v>
+      </c>
+      <c r="I3">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.061</v>
+      </c>
+      <c r="K3">
+        <v>78.092</v>
+      </c>
+      <c r="L3">
+        <v>87.711</v>
+      </c>
+      <c r="M3">
+        <v>86.94799999999999</v>
+      </c>
+      <c r="N3">
+        <v>91.996</v>
+      </c>
+      <c r="O3">
+        <v>94.736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>0.003</v>
+      </c>
+      <c r="C4">
+        <v>0.002</v>
+      </c>
+      <c r="D4">
+        <v>-35.919</v>
+      </c>
+      <c r="E4">
+        <v>0.001</v>
+      </c>
+      <c r="F4">
+        <v>0.001</v>
+      </c>
+      <c r="G4">
+        <v>-44.261</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>-56.716</v>
+      </c>
+      <c r="J4">
+        <v>0.008</v>
+      </c>
+      <c r="K4">
+        <v>18.836</v>
+      </c>
+      <c r="L4">
+        <v>11.231</v>
+      </c>
+      <c r="M4">
+        <v>10.919</v>
+      </c>
+      <c r="N4">
+        <v>6.87</v>
+      </c>
+      <c r="O4">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2225</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>-62.366</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>57.143</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.022</v>
+      </c>
+      <c r="L5">
+        <v>0.466</v>
+      </c>
+      <c r="M5">
+        <v>0.207</v>
+      </c>
+      <c r="N5">
+        <v>0.193</v>
+      </c>
+      <c r="O5">
+        <v>0.323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-77.77800000000001</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-78.125</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1.213</v>
+      </c>
+      <c r="L6">
+        <v>0.251</v>
+      </c>
+      <c r="M6">
+        <v>0.948</v>
+      </c>
+      <c r="N6">
+        <v>0.413</v>
+      </c>
+      <c r="O6">
+        <v>0.206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>43.75</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.08</v>
+      </c>
+      <c r="N7">
+        <v>0.127</v>
+      </c>
+      <c r="O7">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0.044</v>
+      </c>
+      <c r="N10">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-51.429</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.189</v>
+      </c>
+      <c r="L12">
+        <v>0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.03</v>
+      </c>
+      <c r="N13">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>-85.38800000000001</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-81.25</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1.181</v>
+      </c>
+      <c r="L14">
+        <v>0.161</v>
+      </c>
+      <c r="N14">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>-75</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.022</v>
+      </c>
+      <c r="L17">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0.081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>-85.714</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>6000</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0.038</v>
+      </c>
+      <c r="L20">
+        <v>0.005</v>
+      </c>
+      <c r="M20">
+        <v>0.904</v>
+      </c>
+      <c r="N20">
+        <v>0.336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O12"/>
   <sheetViews>
@@ -6333,7 +9824,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6360,27 +9851,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>23.982</v>
@@ -6427,7 +9918,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>22.53</v>
@@ -6474,7 +9965,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0.98</v>
@@ -6521,7 +10012,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>0.054</v>
@@ -6568,7 +10059,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>0.026</v>
@@ -6582,7 +10073,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>0.022</v>
@@ -6620,7 +10111,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.166</v>
@@ -6640,7 +10131,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.191</v>
@@ -6666,7 +10157,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F10">
         <v>0.018</v>
@@ -6680,7 +10171,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>0.002</v>
@@ -6697,7 +10188,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>0.04</v>
@@ -6719,254 +10210,6 @@
       </c>
       <c r="L12">
         <v>0.043</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>33.045</v>
-      </c>
-      <c r="C2">
-        <v>35.869</v>
-      </c>
-      <c r="D2">
-        <v>8.547000000000001</v>
-      </c>
-      <c r="E2">
-        <v>6.192</v>
-      </c>
-      <c r="F2">
-        <v>23.497</v>
-      </c>
-      <c r="G2">
-        <v>-34.493</v>
-      </c>
-      <c r="H2">
-        <v>8.315</v>
-      </c>
-      <c r="I2">
-        <v>34.287</v>
-      </c>
-      <c r="J2">
-        <v>106.917</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3">
-        <v>20.226</v>
-      </c>
-      <c r="C3">
-        <v>20.687</v>
-      </c>
-      <c r="D3">
-        <v>2.279</v>
-      </c>
-      <c r="E3">
-        <v>3.63</v>
-      </c>
-      <c r="F3">
-        <v>14.068</v>
-      </c>
-      <c r="G3">
-        <v>-31.997</v>
-      </c>
-      <c r="H3">
-        <v>7.129</v>
-      </c>
-      <c r="I3">
-        <v>96.377</v>
-      </c>
-      <c r="J3">
-        <v>65.73999999999999</v>
-      </c>
-      <c r="K3">
-        <v>61.208</v>
-      </c>
-      <c r="L3">
-        <v>57.674</v>
-      </c>
-      <c r="M3">
-        <v>58.631</v>
-      </c>
-      <c r="N3">
-        <v>59.871</v>
-      </c>
-      <c r="O3">
-        <v>85.739</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4">
-        <v>5.438</v>
-      </c>
-      <c r="C4">
-        <v>4.149</v>
-      </c>
-      <c r="D4">
-        <v>-23.702</v>
-      </c>
-      <c r="E4">
-        <v>1.112</v>
-      </c>
-      <c r="F4">
-        <v>4.447</v>
-      </c>
-      <c r="G4">
-        <v>7.188</v>
-      </c>
-      <c r="H4">
-        <v>0.634</v>
-      </c>
-      <c r="I4">
-        <v>-43.008</v>
-      </c>
-      <c r="J4">
-        <v>15.78</v>
-      </c>
-      <c r="K4">
-        <v>16.457</v>
-      </c>
-      <c r="L4">
-        <v>11.568</v>
-      </c>
-      <c r="M4">
-        <v>17.954</v>
-      </c>
-      <c r="N4">
-        <v>18.928</v>
-      </c>
-      <c r="O4">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5">
-        <v>7.38</v>
-      </c>
-      <c r="C5">
-        <v>11.033</v>
-      </c>
-      <c r="D5">
-        <v>49.487</v>
-      </c>
-      <c r="E5">
-        <v>1.45</v>
-      </c>
-      <c r="F5">
-        <v>4.981</v>
-      </c>
-      <c r="G5">
-        <v>-54.848</v>
-      </c>
-      <c r="H5">
-        <v>0.552</v>
-      </c>
-      <c r="I5">
-        <v>-61.915</v>
-      </c>
-      <c r="J5">
-        <v>25.397</v>
-      </c>
-      <c r="K5">
-        <v>22.335</v>
-      </c>
-      <c r="L5">
-        <v>30.759</v>
-      </c>
-      <c r="M5">
-        <v>23.415</v>
-      </c>
-      <c r="N5">
-        <v>21.201</v>
-      </c>
-      <c r="O5">
-        <v>6.641</v>
       </c>
     </row>
   </sheetData>
